--- a/数据整理/stocks/A股/科创板/688075-安旭生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688075-安旭生物.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,1015 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1023</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7016</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5845</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3960</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3026</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2900</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002197</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰鑫策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012302</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛鑫福混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012303</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛鑫福混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688075-安旭生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688075-安旭生物.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,37 +463,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -503,36 +483,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>020026</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰成长优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.72</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3889</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.36</v>
       </c>
     </row>
     <row r="3">
@@ -541,112 +499,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>320022</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安研究精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2029</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>020033</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰民安增利债券A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>38.52</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0310</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>020034</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰民安增利债券C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>38.52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -1666,7 +1526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1537,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1577,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.36</v>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3889</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1615,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.64</v>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
